--- a/assets/excel/whz-iboys.xlsx
+++ b/assets/excel/whz-iboys.xlsx
@@ -29,514 +29,514 @@
     <t>Length</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>3.1;3.3</t>
+  </si>
+  <si>
+    <t>2.0;2.1</t>
+  </si>
+  <si>
+    <t>3.3;3.5</t>
+  </si>
+  <si>
+    <t>0;2.2</t>
+  </si>
+  <si>
+    <t>2.3;2.4</t>
+  </si>
+  <si>
+    <t>2.5;3.6</t>
+  </si>
+  <si>
+    <t>0;2.3</t>
+  </si>
+  <si>
+    <t>2.4;2.5</t>
+  </si>
+  <si>
+    <t>2.6;3.8</t>
+  </si>
+  <si>
+    <t>3.9;4.2</t>
+  </si>
+  <si>
+    <t>0;2.5</t>
+  </si>
+  <si>
+    <t>2.6;2.7</t>
+  </si>
+  <si>
+    <t>2.8;4.0</t>
+  </si>
+  <si>
+    <t>0;2.8</t>
+  </si>
+  <si>
+    <t>2.9;3.1</t>
+  </si>
+  <si>
+    <t>0;3.0</t>
+  </si>
+  <si>
+    <t>0;3.2</t>
+  </si>
+  <si>
+    <t>5.3;5.7</t>
+  </si>
+  <si>
+    <t>3.7;3.9</t>
+  </si>
+  <si>
+    <t>4.3;6.1</t>
+  </si>
+  <si>
+    <t>4.1;4.4</t>
+  </si>
+  <si>
+    <t>6.6;7.1</t>
+  </si>
+  <si>
+    <t>0;4.2</t>
+  </si>
+  <si>
+    <t>0;4.4</t>
+  </si>
+  <si>
+    <t>7.2;7.8</t>
+  </si>
+  <si>
+    <t>0;4.6</t>
+  </si>
+  <si>
+    <t>4.7;5.0</t>
+  </si>
+  <si>
+    <t>0;4.8</t>
+  </si>
+  <si>
+    <t>4.9;5.2</t>
+  </si>
+  <si>
+    <t>7.8;8.5</t>
+  </si>
+  <si>
+    <t>0;5.0</t>
+  </si>
+  <si>
+    <t>8.1;8.8</t>
+  </si>
+  <si>
+    <t>0;5.2</t>
+  </si>
+  <si>
+    <t>8.4;9.1</t>
+  </si>
+  <si>
+    <t>0;5.4</t>
+  </si>
+  <si>
+    <t>9.5;10.3</t>
+  </si>
+  <si>
+    <t>0;6.0</t>
+  </si>
+  <si>
+    <t>0;6.2</t>
+  </si>
+  <si>
+    <t>0;6.4</t>
+  </si>
+  <si>
+    <t>6.5;6.9</t>
+  </si>
+  <si>
+    <t>0;6.5</t>
+  </si>
+  <si>
+    <t>0;6.7</t>
+  </si>
+  <si>
+    <t>6.8;7.3</t>
+  </si>
+  <si>
+    <t>6.9;7.4</t>
+  </si>
+  <si>
+    <t>0;7.1</t>
+  </si>
+  <si>
+    <t>11.6;12.6</t>
+  </si>
+  <si>
+    <t>0;7.4</t>
+  </si>
+  <si>
+    <t>7.5;8.1</t>
+  </si>
+  <si>
+    <t>0;7.7</t>
+  </si>
+  <si>
+    <t>0;8.0</t>
+  </si>
+  <si>
+    <t>0;8.4</t>
+  </si>
+  <si>
+    <t>8.5;9.1</t>
+  </si>
+  <si>
+    <t>0;8.6</t>
+  </si>
+  <si>
+    <t>8.7;9.3</t>
+  </si>
+  <si>
+    <t>0;8.8</t>
+  </si>
+  <si>
+    <t>2.0;3.0</t>
+  </si>
+  <si>
+    <t>2.2;3.1</t>
+  </si>
+  <si>
+    <t>3.2;3.5</t>
+  </si>
+  <si>
+    <t>0;2.0</t>
+  </si>
+  <si>
+    <t>2.1;2.2</t>
+  </si>
+  <si>
+    <t>2.3;3.3</t>
+  </si>
+  <si>
+    <t>3.4;3.7</t>
+  </si>
+  <si>
+    <t>0;2.6</t>
+  </si>
+  <si>
+    <t>2.7;2.9</t>
+  </si>
+  <si>
+    <t>3.0;4.2</t>
+  </si>
+  <si>
+    <t>4.3;4.7</t>
+  </si>
+  <si>
+    <t>3.2;4.5</t>
+  </si>
+  <si>
+    <t>4.6;5.0</t>
+  </si>
+  <si>
+    <t>3.4;4.8</t>
+  </si>
+  <si>
+    <t>4.9;5.3</t>
+  </si>
+  <si>
+    <t>3.6;5.1</t>
+  </si>
+  <si>
+    <t>5.2;5.6</t>
+  </si>
+  <si>
+    <t>0;3.5</t>
+  </si>
+  <si>
+    <t>3.6;3.7</t>
+  </si>
+  <si>
+    <t>3.8;5.4</t>
+  </si>
+  <si>
+    <t>5.5;6.0</t>
+  </si>
+  <si>
+    <t>0;3.7</t>
+  </si>
+  <si>
+    <t>3.8;4.0</t>
+  </si>
+  <si>
+    <t>4.1;5.8</t>
+  </si>
+  <si>
+    <t>5.9;6.3</t>
+  </si>
+  <si>
+    <t>0;3.9</t>
+  </si>
+  <si>
+    <t>4.0;4.2</t>
+  </si>
+  <si>
+    <t>6.2;6.7</t>
+  </si>
+  <si>
+    <t>4.3;4.5</t>
+  </si>
+  <si>
+    <t>4.6;6.4</t>
+  </si>
+  <si>
+    <t>6.5;7.1</t>
+  </si>
+  <si>
+    <t>4.5;4.7</t>
+  </si>
+  <si>
+    <t>4.8;6.8</t>
+  </si>
+  <si>
+    <t>5.1;7.1</t>
+  </si>
+  <si>
+    <t>5.3;7.4</t>
+  </si>
+  <si>
+    <t>5.1;5.5</t>
+  </si>
+  <si>
+    <t>5.6;7.7</t>
+  </si>
+  <si>
+    <t>5.8;8.0</t>
+  </si>
+  <si>
+    <t>5.5;5.9</t>
+  </si>
+  <si>
+    <t>6.0;8.3</t>
+  </si>
+  <si>
+    <t>0;5.6</t>
+  </si>
+  <si>
+    <t>5.7;6.1</t>
+  </si>
+  <si>
+    <t>6.2;8.6</t>
+  </si>
+  <si>
+    <t>8.7;9.4</t>
+  </si>
+  <si>
+    <t>0;5.8</t>
+  </si>
+  <si>
+    <t>6.4;8.9</t>
+  </si>
+  <si>
+    <t>9.0;9.7</t>
+  </si>
+  <si>
+    <t>6.1;6.5</t>
+  </si>
+  <si>
+    <t>6.6;9.2</t>
+  </si>
+  <si>
+    <t>9.3;10.0</t>
+  </si>
+  <si>
+    <t>6.3;6.7</t>
+  </si>
+  <si>
+    <t>6.8;9.4</t>
+  </si>
+  <si>
+    <t>7.0;9.7</t>
+  </si>
+  <si>
+    <t>9.8;10.6</t>
+  </si>
+  <si>
+    <t>7.2;10.0</t>
+  </si>
+  <si>
+    <t>10.1;10.9</t>
+  </si>
+  <si>
+    <t>7.4;10.2</t>
+  </si>
+  <si>
+    <t>10.3;11.2</t>
+  </si>
+  <si>
+    <t>0;6.9</t>
+  </si>
+  <si>
+    <t>7.0;7.5</t>
+  </si>
+  <si>
+    <t>7.6;10.5</t>
+  </si>
+  <si>
+    <t>10.6;11.5</t>
+  </si>
+  <si>
+    <t>7.2;7.6</t>
+  </si>
+  <si>
+    <t>7.7;10.8</t>
+  </si>
+  <si>
+    <t>10.9;11.8</t>
+  </si>
+  <si>
+    <t>0;7.2</t>
+  </si>
+  <si>
+    <t>7.3;7.8</t>
+  </si>
+  <si>
+    <t>7.9;11.0</t>
+  </si>
+  <si>
+    <t>11.1;12.1</t>
+  </si>
+  <si>
+    <t>7.5;8.0</t>
+  </si>
+  <si>
+    <t>8.1;11.3</t>
+  </si>
+  <si>
+    <t>11.4;12.3</t>
+  </si>
+  <si>
+    <t>0;7.5</t>
+  </si>
+  <si>
+    <t>7.6;8.2</t>
+  </si>
+  <si>
+    <t>8.3;11.5</t>
+  </si>
+  <si>
+    <t>7.8;8.3</t>
+  </si>
+  <si>
+    <t>8.4;11.7</t>
+  </si>
+  <si>
+    <t>11.8;12.8</t>
+  </si>
+  <si>
+    <t>0;7.8</t>
+  </si>
+  <si>
+    <t>7.9;8.5</t>
+  </si>
+  <si>
+    <t>8.6;12.0</t>
+  </si>
+  <si>
+    <t>12.1;13.1</t>
+  </si>
+  <si>
+    <t>8.1;8.6</t>
+  </si>
+  <si>
+    <t>8.7;12.2</t>
+  </si>
+  <si>
+    <t>12.3;13.3</t>
+  </si>
+  <si>
+    <t>0;8.1</t>
+  </si>
+  <si>
+    <t>8.2;8.8</t>
+  </si>
+  <si>
+    <t>8.9;12.4</t>
+  </si>
+  <si>
+    <t>12.5;13.6</t>
+  </si>
+  <si>
+    <t>0;8.3</t>
+  </si>
+  <si>
+    <t>8.4;9.0</t>
+  </si>
+  <si>
+    <t>9.1;12.6</t>
+  </si>
+  <si>
+    <t>12.7;13.8</t>
+  </si>
+  <si>
+    <t>9.2;12.8</t>
+  </si>
+  <si>
+    <t>12.9;14.0</t>
+  </si>
+  <si>
+    <t>9.4;13.1</t>
+  </si>
+  <si>
+    <t>13.2;14.3</t>
+  </si>
+  <si>
+    <t>8.9;9.5</t>
+  </si>
+  <si>
+    <t>9.6;13.3</t>
+  </si>
+  <si>
+    <t>13.4;14.6</t>
+  </si>
+  <si>
+    <t>0;9.0</t>
+  </si>
+  <si>
+    <t>9.1;9.7</t>
+  </si>
+  <si>
+    <t>9.8;13.6</t>
+  </si>
+  <si>
+    <t>13.7;14.9</t>
+  </si>
+  <si>
+    <t>0;9.2</t>
+  </si>
+  <si>
+    <t>9.3;9.9</t>
+  </si>
+  <si>
+    <t>10.0;13.9</t>
+  </si>
+  <si>
+    <t>14.0;15.2</t>
+  </si>
+  <si>
+    <t>0;1.8</t>
+  </si>
+  <si>
+    <t>0;1.9</t>
+  </si>
+  <si>
     <t>SAM</t>
   </si>
   <si>
     <t>MAM</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Overweight</t>
-  </si>
-  <si>
-    <t>Obesity</t>
-  </si>
-  <si>
-    <t>3.1;3.3</t>
-  </si>
-  <si>
-    <t>2.0;2.1</t>
-  </si>
-  <si>
-    <t>3.3;3.5</t>
-  </si>
-  <si>
-    <t>0;2.2</t>
-  </si>
-  <si>
-    <t>2.3;2.4</t>
-  </si>
-  <si>
-    <t>2.5;3.6</t>
-  </si>
-  <si>
-    <t>0;2.3</t>
-  </si>
-  <si>
-    <t>2.4;2.5</t>
-  </si>
-  <si>
-    <t>2.6;3.8</t>
-  </si>
-  <si>
-    <t>3.9;4.2</t>
-  </si>
-  <si>
-    <t>0;2.5</t>
-  </si>
-  <si>
-    <t>2.6;2.7</t>
-  </si>
-  <si>
-    <t>2.8;4.0</t>
-  </si>
-  <si>
-    <t>0;2.8</t>
-  </si>
-  <si>
-    <t>2.9;3.1</t>
-  </si>
-  <si>
-    <t>0;3.0</t>
-  </si>
-  <si>
-    <t>0;3.2</t>
-  </si>
-  <si>
-    <t>5.3;5.7</t>
-  </si>
-  <si>
-    <t>3.7;3.9</t>
-  </si>
-  <si>
-    <t>4.3;6.1</t>
-  </si>
-  <si>
-    <t>4.1;4.4</t>
-  </si>
-  <si>
-    <t>6.6;7.1</t>
-  </si>
-  <si>
-    <t>0;4.2</t>
-  </si>
-  <si>
-    <t>0;4.4</t>
-  </si>
-  <si>
-    <t>7.2;7.8</t>
-  </si>
-  <si>
-    <t>0;4.6</t>
-  </si>
-  <si>
-    <t>4.7;5.0</t>
-  </si>
-  <si>
-    <t>0;4.8</t>
-  </si>
-  <si>
-    <t>4.9;5.2</t>
-  </si>
-  <si>
-    <t>7.8;8.5</t>
-  </si>
-  <si>
-    <t>0;5.0</t>
-  </si>
-  <si>
-    <t>8.1;8.8</t>
-  </si>
-  <si>
-    <t>0;5.2</t>
-  </si>
-  <si>
-    <t>8.4;9.1</t>
-  </si>
-  <si>
-    <t>0;5.4</t>
-  </si>
-  <si>
-    <t>9.5;10.3</t>
-  </si>
-  <si>
-    <t>0;6.0</t>
-  </si>
-  <si>
-    <t>0;6.2</t>
-  </si>
-  <si>
-    <t>0;6.4</t>
-  </si>
-  <si>
-    <t>6.5;6.9</t>
-  </si>
-  <si>
-    <t>0;6.5</t>
-  </si>
-  <si>
-    <t>0;6.7</t>
-  </si>
-  <si>
-    <t>6.8;7.3</t>
-  </si>
-  <si>
-    <t>6.9;7.4</t>
-  </si>
-  <si>
-    <t>0;7.1</t>
-  </si>
-  <si>
-    <t>11.6;12.6</t>
-  </si>
-  <si>
-    <t>0;7.4</t>
-  </si>
-  <si>
-    <t>7.5;8.1</t>
-  </si>
-  <si>
-    <t>0;7.7</t>
-  </si>
-  <si>
-    <t>0;8.0</t>
-  </si>
-  <si>
-    <t>0;8.4</t>
-  </si>
-  <si>
-    <t>8.5;9.1</t>
-  </si>
-  <si>
-    <t>0;8.6</t>
-  </si>
-  <si>
-    <t>8.7;9.3</t>
-  </si>
-  <si>
-    <t>0;8.8</t>
-  </si>
-  <si>
-    <t>2.0;3.0</t>
-  </si>
-  <si>
-    <t>2.2;3.1</t>
-  </si>
-  <si>
-    <t>3.2;3.5</t>
-  </si>
-  <si>
-    <t>0;2.0</t>
-  </si>
-  <si>
-    <t>2.1;2.2</t>
-  </si>
-  <si>
-    <t>2.3;3.3</t>
-  </si>
-  <si>
-    <t>3.4;3.7</t>
-  </si>
-  <si>
-    <t>0;2.6</t>
-  </si>
-  <si>
-    <t>2.7;2.9</t>
-  </si>
-  <si>
-    <t>3.0;4.2</t>
-  </si>
-  <si>
-    <t>4.3;4.7</t>
-  </si>
-  <si>
-    <t>3.2;4.5</t>
-  </si>
-  <si>
-    <t>4.6;5.0</t>
-  </si>
-  <si>
-    <t>3.4;4.8</t>
-  </si>
-  <si>
-    <t>4.9;5.3</t>
-  </si>
-  <si>
-    <t>3.6;5.1</t>
-  </si>
-  <si>
-    <t>5.2;5.6</t>
-  </si>
-  <si>
-    <t>0;3.5</t>
-  </si>
-  <si>
-    <t>3.6;3.7</t>
-  </si>
-  <si>
-    <t>3.8;5.4</t>
-  </si>
-  <si>
-    <t>5.5;6.0</t>
-  </si>
-  <si>
-    <t>0;3.7</t>
-  </si>
-  <si>
-    <t>3.8;4.0</t>
-  </si>
-  <si>
-    <t>4.1;5.8</t>
-  </si>
-  <si>
-    <t>5.9;6.3</t>
-  </si>
-  <si>
-    <t>0;3.9</t>
-  </si>
-  <si>
-    <t>4.0;4.2</t>
-  </si>
-  <si>
-    <t>6.2;6.7</t>
-  </si>
-  <si>
-    <t>4.3;4.5</t>
-  </si>
-  <si>
-    <t>4.6;6.4</t>
-  </si>
-  <si>
-    <t>6.5;7.1</t>
-  </si>
-  <si>
-    <t>4.5;4.7</t>
-  </si>
-  <si>
-    <t>4.8;6.8</t>
-  </si>
-  <si>
-    <t>5.1;7.1</t>
-  </si>
-  <si>
-    <t>5.3;7.4</t>
-  </si>
-  <si>
-    <t>5.1;5.5</t>
-  </si>
-  <si>
-    <t>5.6;7.7</t>
-  </si>
-  <si>
-    <t>5.8;8.0</t>
-  </si>
-  <si>
-    <t>5.5;5.9</t>
-  </si>
-  <si>
-    <t>6.0;8.3</t>
-  </si>
-  <si>
-    <t>0;5.6</t>
-  </si>
-  <si>
-    <t>5.7;6.1</t>
-  </si>
-  <si>
-    <t>6.2;8.6</t>
-  </si>
-  <si>
-    <t>8.7;9.4</t>
-  </si>
-  <si>
-    <t>0;5.8</t>
-  </si>
-  <si>
-    <t>6.4;8.9</t>
-  </si>
-  <si>
-    <t>9.0;9.7</t>
-  </si>
-  <si>
-    <t>6.1;6.5</t>
-  </si>
-  <si>
-    <t>6.6;9.2</t>
-  </si>
-  <si>
-    <t>9.3;10.0</t>
-  </si>
-  <si>
-    <t>6.3;6.7</t>
-  </si>
-  <si>
-    <t>6.8;9.4</t>
-  </si>
-  <si>
-    <t>7.0;9.7</t>
-  </si>
-  <si>
-    <t>9.8;10.6</t>
-  </si>
-  <si>
-    <t>7.2;10.0</t>
-  </si>
-  <si>
-    <t>10.1;10.9</t>
-  </si>
-  <si>
-    <t>7.4;10.2</t>
-  </si>
-  <si>
-    <t>10.3;11.2</t>
-  </si>
-  <si>
-    <t>0;6.9</t>
-  </si>
-  <si>
-    <t>7.0;7.5</t>
-  </si>
-  <si>
-    <t>7.6;10.5</t>
-  </si>
-  <si>
-    <t>10.6;11.5</t>
-  </si>
-  <si>
-    <t>7.2;7.6</t>
-  </si>
-  <si>
-    <t>7.7;10.8</t>
-  </si>
-  <si>
-    <t>10.9;11.8</t>
-  </si>
-  <si>
-    <t>0;7.2</t>
-  </si>
-  <si>
-    <t>7.3;7.8</t>
-  </si>
-  <si>
-    <t>7.9;11.0</t>
-  </si>
-  <si>
-    <t>11.1;12.1</t>
-  </si>
-  <si>
-    <t>7.5;8.0</t>
-  </si>
-  <si>
-    <t>8.1;11.3</t>
-  </si>
-  <si>
-    <t>11.4;12.3</t>
-  </si>
-  <si>
-    <t>0;7.5</t>
-  </si>
-  <si>
-    <t>7.6;8.2</t>
-  </si>
-  <si>
-    <t>8.3;11.5</t>
-  </si>
-  <si>
-    <t>7.8;8.3</t>
-  </si>
-  <si>
-    <t>8.4;11.7</t>
-  </si>
-  <si>
-    <t>11.8;12.8</t>
-  </si>
-  <si>
-    <t>0;7.8</t>
-  </si>
-  <si>
-    <t>7.9;8.5</t>
-  </si>
-  <si>
-    <t>8.6;12.0</t>
-  </si>
-  <si>
-    <t>12.1;13.1</t>
-  </si>
-  <si>
-    <t>8.1;8.6</t>
-  </si>
-  <si>
-    <t>8.7;12.2</t>
-  </si>
-  <si>
-    <t>12.3;13.3</t>
-  </si>
-  <si>
-    <t>0;8.1</t>
-  </si>
-  <si>
-    <t>8.2;8.8</t>
-  </si>
-  <si>
-    <t>8.9;12.4</t>
-  </si>
-  <si>
-    <t>12.5;13.6</t>
-  </si>
-  <si>
-    <t>0;8.3</t>
-  </si>
-  <si>
-    <t>8.4;9.0</t>
-  </si>
-  <si>
-    <t>9.1;12.6</t>
-  </si>
-  <si>
-    <t>12.7;13.8</t>
-  </si>
-  <si>
-    <t>9.2;12.8</t>
-  </si>
-  <si>
-    <t>12.9;14.0</t>
-  </si>
-  <si>
-    <t>9.4;13.1</t>
-  </si>
-  <si>
-    <t>13.2;14.3</t>
-  </si>
-  <si>
-    <t>8.9;9.5</t>
-  </si>
-  <si>
-    <t>9.6;13.3</t>
-  </si>
-  <si>
-    <t>13.4;14.6</t>
-  </si>
-  <si>
-    <t>0;9.0</t>
-  </si>
-  <si>
-    <t>9.1;9.7</t>
-  </si>
-  <si>
-    <t>9.8;13.6</t>
-  </si>
-  <si>
-    <t>13.7;14.9</t>
-  </si>
-  <si>
-    <t>0;9.2</t>
-  </si>
-  <si>
-    <t>9.3;9.9</t>
-  </si>
-  <si>
-    <t>10.0;13.9</t>
-  </si>
-  <si>
-    <t>14.0;15.2</t>
-  </si>
-  <si>
-    <t>0;1.8</t>
-  </si>
-  <si>
-    <t>0;1.9</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1005,16 +1005,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="8">
         <v>1.9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="11">
         <v>3.3</v>
@@ -1025,16 +1025,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="14">
         <v>3.5</v>
@@ -1045,16 +1045,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="F4" s="14">
         <v>3.7</v>
@@ -1065,16 +1065,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="16">
         <v>3.9</v>
@@ -1085,16 +1085,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="14">
         <v>4.2</v>
@@ -1105,16 +1105,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="14">
         <v>4.4000000000000004</v>
@@ -1125,16 +1125,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F8" s="14">
         <v>4.7</v>
@@ -1145,16 +1145,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" s="14">
         <v>5</v>
@@ -1165,16 +1165,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="14">
         <v>5.3</v>
@@ -1185,16 +1185,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="14">
         <v>5.6</v>
@@ -1205,16 +1205,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F12" s="14">
         <v>6</v>
@@ -1225,16 +1225,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="F13" s="14">
         <v>6.3</v>
@@ -1245,16 +1245,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="F14" s="14">
         <v>6.7</v>
@@ -1265,16 +1265,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="14">
         <v>7.1</v>
@@ -1285,16 +1285,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="14">
         <v>7.4</v>
@@ -1305,16 +1305,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="14">
         <v>7.8</v>
@@ -1325,16 +1325,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="14">
         <v>8.1</v>
@@ -1345,16 +1345,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="14">
         <v>8.5</v>
@@ -1365,16 +1365,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="14">
         <v>8.8000000000000007</v>
@@ -1385,16 +1385,16 @@
         <v>64</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="14">
         <v>9.1</v>
@@ -1405,16 +1405,16 @@
         <v>65</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="F22" s="14">
         <v>9.4</v>
@@ -1425,16 +1425,16 @@
         <v>66</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="F23" s="14">
         <v>9.6999999999999993</v>
@@ -1445,16 +1445,16 @@
         <v>67</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="F24" s="14">
         <v>10</v>
@@ -1465,16 +1465,16 @@
         <v>68</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="14">
         <v>10.3</v>
@@ -1485,16 +1485,16 @@
         <v>69</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F26" s="14">
         <v>10.6</v>
@@ -1505,16 +1505,16 @@
         <v>70</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F27" s="14">
         <v>10.9</v>
@@ -1525,16 +1525,16 @@
         <v>71</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F28" s="17">
         <v>11.2</v>
@@ -1545,16 +1545,16 @@
         <v>72</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="F29" s="17">
         <v>11.5</v>
@@ -1565,16 +1565,16 @@
         <v>73</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="F30" s="17">
         <v>11.8</v>
@@ -1585,16 +1585,16 @@
         <v>74</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="F31" s="17">
         <v>12.1</v>
@@ -1605,16 +1605,16 @@
         <v>75</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F32" s="17">
         <v>12.3</v>
@@ -1625,16 +1625,16 @@
         <v>76</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="17">
         <v>12.6</v>
@@ -1645,16 +1645,16 @@
         <v>77</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="F34" s="17">
         <v>12.8</v>
@@ -1665,16 +1665,16 @@
         <v>78</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="F35" s="17">
         <v>13.1</v>
@@ -1685,16 +1685,16 @@
         <v>79</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="F36" s="17">
         <v>13.3</v>
@@ -1705,16 +1705,16 @@
         <v>80</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="F37" s="17">
         <v>13.6</v>
@@ -1725,16 +1725,16 @@
         <v>81</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="F38" s="17">
         <v>13.8</v>
@@ -1745,16 +1745,16 @@
         <v>82</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" s="17">
         <v>14</v>
@@ -1765,16 +1765,16 @@
         <v>83</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F40" s="17">
         <v>14.3</v>
@@ -1785,16 +1785,16 @@
         <v>84</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="F41" s="17">
         <v>14.6</v>
@@ -1805,16 +1805,16 @@
         <v>85</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="F42" s="17">
         <v>14.9</v>
@@ -1825,16 +1825,16 @@
         <v>86</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="E43" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="F43" s="14">
         <v>15.2</v>
